--- a/Values/2021-08-20-CO₂-FU-values.xlsx
+++ b/Values/2021-08-20-CO₂-FU-values.xlsx
@@ -26690,14 +26690,15 @@
       </c>
       <c r="D417" s="9">
         <f>E417/K417*1.6</f>
-        <v>1979.2</v>
+        <v>1384.914285714290</v>
       </c>
       <c r="E417" s="10">
         <f>SUM(F417,H417,I417)</f>
-        <v>86.59</v>
+        <v>60.59</v>
       </c>
       <c r="F417" s="13">
-        <v>61</v>
+        <f>61-26</f>
+        <v>35</v>
       </c>
       <c r="G417" s="9">
         <f>SUM(H417:I417)/K417*1.6</f>
@@ -28724,14 +28725,15 @@
       </c>
       <c r="D456" s="9">
         <f>E456/K456*1.6</f>
-        <v>1363.555555555560</v>
+        <v>1023.822222222220</v>
       </c>
       <c r="E456" s="10">
         <f>SUM(F456,H456,I456)</f>
-        <v>76.7</v>
+        <v>57.59</v>
       </c>
       <c r="F456" s="13">
-        <v>63.7</v>
+        <f>63.7*0.7</f>
+        <v>44.59</v>
       </c>
       <c r="G456" s="9">
         <f>SUM(H456:I456)/K456*1.6</f>
